--- a/events/static/events/xl_templates/result_template.xlsx
+++ b/events/static/events/xl_templates/result_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my\climbing_events\events\static\events\xl_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\py\climbing_events\events\static\events\xl_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Участник</t>
   </si>
@@ -45,12 +45,6 @@
   </si>
   <si>
     <t>Место</t>
-  </si>
-  <si>
-    <t>7A</t>
-  </si>
-  <si>
-    <t>100.00/80.00</t>
   </si>
   <si>
     <t>T#1</t>
@@ -479,7 +473,7 @@
   <dimension ref="A1:DK8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,7 +526,7 @@
     </row>
     <row r="5" spans="1:115" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -548,9 +542,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="H6" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
@@ -659,11 +651,7 @@
       <c r="DJ6" s="6"/>
       <c r="DK6" s="6"/>
     </row>
-    <row r="7" spans="1:115" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H7" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
+    <row r="7" spans="1:115" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:115" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
@@ -684,10 +672,10 @@
         <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
